--- a/测试结果.xlsx
+++ b/测试结果.xlsx
@@ -14,16 +14,12 @@
   <sheets>
     <sheet name="测试结果" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
-  <si>
-    <t>标准差</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>BM3D-10</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -46,10 +42,6 @@
   </si>
   <si>
     <t>平均滤波</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>灰度图</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -108,11 +100,27 @@
     <t>BM3D</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>时间/s</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNN(CPU)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>噪声水平</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -699,8 +707,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -775,39 +789,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11102537182852143"/>
+          <c:y val="0.20370370370370369"/>
+          <c:w val="0.85841907261592298"/>
+          <c:h val="0.53716010498687661"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1181,6 +1175,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>去噪后</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>PSNR</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1247,6 +1301,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>噪声水平</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1926,8 +2035,8 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2252,26 +2361,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="6:9" x14ac:dyDescent="0.25">
@@ -2428,40 +2537,43 @@
         <v>33.0217933745</v>
       </c>
     </row>
-    <row r="28" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" t="s">
+        <v>2</v>
+      </c>
+      <c r="K29" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" t="s">
+        <v>18</v>
+      </c>
+      <c r="M29" t="s">
         <v>22</v>
       </c>
-      <c r="I28" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="29" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="F29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I29" t="s">
-        <v>7</v>
-      </c>
-      <c r="J29" t="s">
-        <v>3</v>
-      </c>
-      <c r="K29" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F30">
         <v>31.247195504899999</v>
@@ -2473,31 +2585,34 @@
         <v>31.384581311200002</v>
       </c>
       <c r="I30" t="s">
-        <v>8</v>
-      </c>
-      <c r="J30">
+        <v>6</v>
+      </c>
+      <c r="J30" s="1">
         <v>0.20100000000000001</v>
       </c>
       <c r="K30">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="L30" s="1">
         <v>2.1346516609191801</v>
       </c>
-      <c r="L30">
+      <c r="M30" s="2">
         <v>14.96</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <f>F30-0.4</f>
         <v>30.8471955049</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>31.647195504899997</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>32.647195504899997</v>
       </c>
     </row>
-    <row r="31" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F31">
         <v>33.284040969000003</v>
@@ -2509,31 +2624,34 @@
         <v>34.367052620800003</v>
       </c>
       <c r="I31" t="s">
-        <v>9</v>
-      </c>
-      <c r="J31">
+        <v>7</v>
+      </c>
+      <c r="J31" s="1">
         <v>0.19900000000000001</v>
       </c>
       <c r="K31">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="L31" s="1">
         <v>2.09431672096252</v>
       </c>
-      <c r="L31">
+      <c r="M31" s="2">
         <v>15.49</v>
       </c>
-      <c r="M31">
-        <f t="shared" ref="M31:M41" si="0">F31-0.4</f>
+      <c r="N31">
+        <f>F31-0.4</f>
         <v>32.884040969000004</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>33.684040969000002</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>34.684040969000002</v>
       </c>
     </row>
-    <row r="32" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F32">
         <v>31.732678064399998</v>
@@ -2545,34 +2663,37 @@
         <v>32.110051281499999</v>
       </c>
       <c r="I32" t="s">
-        <v>10</v>
-      </c>
-      <c r="J32">
+        <v>8</v>
+      </c>
+      <c r="J32" s="1">
         <v>0.2</v>
       </c>
       <c r="K32">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="L32" s="1">
         <v>2.07903957366943</v>
       </c>
-      <c r="L32">
+      <c r="M32" s="2">
         <v>15.09</v>
       </c>
-      <c r="M32">
-        <f t="shared" si="0"/>
+      <c r="N32">
+        <f>F32-0.4</f>
         <v>31.3326780644</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>32.132678064399997</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>33.132678064399997</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F33">
         <v>31.067492702999999</v>
@@ -2584,34 +2705,37 @@
         <v>30.551769826099999</v>
       </c>
       <c r="I33" t="s">
-        <v>11</v>
-      </c>
-      <c r="J33">
+        <v>9</v>
+      </c>
+      <c r="J33" s="1">
         <v>0.20200000000000001</v>
       </c>
       <c r="K33">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="L33" s="1">
         <v>2.19964575767517</v>
       </c>
-      <c r="L33">
+      <c r="M33" s="2">
         <v>14.49</v>
       </c>
-      <c r="M33">
-        <f t="shared" si="0"/>
+      <c r="N33">
+        <f>F33-0.4</f>
         <v>30.667492703000001</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>31.467492702999998</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>32.467492702999998</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E34" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F34">
         <v>31.5934707049</v>
@@ -2623,34 +2747,37 @@
         <v>31.223190710299999</v>
       </c>
       <c r="I34" t="s">
-        <v>12</v>
-      </c>
-      <c r="J34">
+        <v>10</v>
+      </c>
+      <c r="J34" s="1">
         <v>0.20300000000000001</v>
       </c>
       <c r="K34">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="L34" s="1">
         <v>2.1692881584167401</v>
       </c>
-      <c r="L34">
+      <c r="M34" s="2">
         <v>14.69</v>
       </c>
-      <c r="M34">
-        <f t="shared" si="0"/>
+      <c r="N34">
+        <f>F34-0.4</f>
         <v>31.193470704900001</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>31.993470704899998</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>32.993470704899998</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F35">
         <v>30.777727917500002</v>
@@ -2662,31 +2789,34 @@
         <v>30.6288314902</v>
       </c>
       <c r="I35" t="s">
-        <v>13</v>
-      </c>
-      <c r="J35">
+        <v>11</v>
+      </c>
+      <c r="J35" s="1">
         <v>0.20200000000000001</v>
       </c>
       <c r="K35">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="L35" s="1">
         <v>2.1160702705383301</v>
       </c>
-      <c r="L35">
+      <c r="M35" s="2">
         <v>14.38</v>
       </c>
-      <c r="M35">
-        <f t="shared" si="0"/>
+      <c r="N35">
+        <f>F35-0.4</f>
         <v>30.377727917500003</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>31.1777279175</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>32.1777279175</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F36">
         <v>31.091748240699999</v>
@@ -2698,31 +2828,34 @@
         <v>30.9522241805</v>
       </c>
       <c r="I36" t="s">
-        <v>14</v>
-      </c>
-      <c r="J36">
+        <v>12</v>
+      </c>
+      <c r="J36" s="1">
         <v>0.19600000000000001</v>
       </c>
       <c r="K36">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="L36" s="1">
         <v>2.5185284614562899</v>
       </c>
-      <c r="L36">
+      <c r="M36" s="2">
         <v>14.48</v>
       </c>
-      <c r="M36">
-        <f t="shared" si="0"/>
+      <c r="N36">
+        <f>F36-0.4</f>
         <v>30.691748240700001</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>31.491748240699998</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>32.491748240699998</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F37">
         <v>35.255281242300001</v>
@@ -2734,31 +2867,34 @@
         <v>33.803700695499998</v>
       </c>
       <c r="I37" t="s">
-        <v>15</v>
-      </c>
-      <c r="J37">
+        <v>13</v>
+      </c>
+      <c r="J37" s="1">
         <v>0.44600000000000001</v>
       </c>
       <c r="K37">
+        <v>0.88</v>
+      </c>
+      <c r="L37" s="1">
         <v>8.8325843811035103</v>
       </c>
-      <c r="L37">
+      <c r="M37" s="2">
         <v>31.15</v>
       </c>
-      <c r="M37">
-        <f t="shared" si="0"/>
+      <c r="N37">
+        <f>F37-0.4</f>
         <v>34.855281242300002</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>35.655281242299999</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>36.655281242299999</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F38">
         <v>30.100605971700002</v>
@@ -2770,31 +2906,34 @@
         <v>32.350111680200001</v>
       </c>
       <c r="I38" t="s">
-        <v>16</v>
-      </c>
-      <c r="J38">
+        <v>14</v>
+      </c>
+      <c r="J38" s="1">
         <v>0.44900000000000001</v>
       </c>
       <c r="K38">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="L38" s="1">
         <v>9.0063586235046298</v>
       </c>
-      <c r="L38">
+      <c r="M38" s="2">
         <v>29.75</v>
       </c>
-      <c r="M38">
-        <f t="shared" si="0"/>
+      <c r="N38">
+        <f>F38-0.4</f>
         <v>29.700605971700003</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>30.500605971700001</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>31.500605971700001</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F39">
         <v>31.451669369800001</v>
@@ -2806,31 +2945,34 @@
         <v>31.742151762700001</v>
       </c>
       <c r="I39" t="s">
-        <v>17</v>
-      </c>
-      <c r="J39">
+        <v>15</v>
+      </c>
+      <c r="J39" s="1">
         <v>0.44700000000000001</v>
       </c>
       <c r="K39">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="L39" s="1">
         <v>9.0300984382629395</v>
       </c>
-      <c r="L39">
+      <c r="M39" s="2">
         <v>29.04</v>
       </c>
-      <c r="M39">
-        <f t="shared" si="0"/>
+      <c r="N39">
+        <f>F39-0.4</f>
         <v>31.051669369800003</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>31.8516693698</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>32.8516693698</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F40">
         <v>31.526274944400001</v>
@@ -2842,31 +2984,34 @@
         <v>31.584162436500002</v>
       </c>
       <c r="I40" t="s">
-        <v>18</v>
-      </c>
-      <c r="J40">
+        <v>16</v>
+      </c>
+      <c r="J40" s="1">
         <v>0.44800000000000001</v>
       </c>
       <c r="K40">
+        <v>0.875</v>
+      </c>
+      <c r="L40" s="1">
         <v>8.9069957733154297</v>
       </c>
-      <c r="L40">
+      <c r="M40" s="2">
         <v>35.26</v>
       </c>
-      <c r="M40">
-        <f t="shared" si="0"/>
+      <c r="N40">
+        <f>F40-0.4</f>
         <v>31.126274944400002</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>31.926274944399999</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>32.926274944399999</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F41">
         <v>31.271411088400001</v>
@@ -2878,25 +3023,28 @@
         <v>31.621532878699998</v>
       </c>
       <c r="I41" t="s">
-        <v>19</v>
-      </c>
-      <c r="J41">
+        <v>17</v>
+      </c>
+      <c r="J41" s="1">
         <v>0.442</v>
       </c>
       <c r="K41">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="L41" s="1">
         <v>8.5693709850311208</v>
       </c>
-      <c r="L41">
+      <c r="M41" s="2">
         <v>30.84</v>
       </c>
-      <c r="M41">
-        <f t="shared" si="0"/>
+      <c r="N41">
+        <f>F41-0.4</f>
         <v>30.871411088400002</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>31.671411088399999</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>32.671411088399999</v>
       </c>
     </row>
@@ -2906,6 +3054,7 @@
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>